--- a/medicine/Psychotrope/Boca_(DOC)/Boca_(DOC).xlsx
+++ b/medicine/Psychotrope/Boca_(DOC)/Boca_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Boca est un vin italien de la région Piémont dont les appellations sont dotés d'une appellation DOC depuis le 18 juillet 1969. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. La superficie plantée en vignes est de 12,25 hectares.
@@ -513,7 +525,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis  avec des reflets grenat
 odeur : fin, agréable, arôme de violette
@@ -547,7 +561,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les communes possédant l'appellation Boca (DOC)
 Les vignobles autorisés se situent en province de Novare dans les communes de Boca, Maggiora, Cavallirio, Prato Sesia et Grignasco au sud-ouest du lac Majeur.
@@ -579,7 +595,9 @@
           <t>Associations de plats conseillées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ragoûts, les rôtis, les pot-au-feu, fromages.
 </t>
@@ -610,7 +628,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 Novara  (1990/91)  209,4
